--- a/REGULAR/CTO/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/CTO/REPILLO AMMY LOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>8/29,30/2023</t>
+  </si>
+  <si>
+    <t>11/3,6/2023</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1433,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomLeft" activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1598,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.810000000000009</v>
+        <v>56.310000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1605,7 +1608,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.25</v>
+        <v>61.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3997,13 +4000,15 @@
       <c r="B117" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39">
         <v>1</v>
@@ -4019,13 +4024,15 @@
         <v>45200</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
@@ -4036,9 +4043,13 @@
       <c r="A119" s="40">
         <v>45231</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>2</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4048,7 +4059,9 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
@@ -4673,7 +4686,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.06</v>
+        <v>118.06</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
